--- a/data/VMN_ad_mp_2.0m.xlsx
+++ b/data/VMN_ad_mp_2.0m.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14375421\OneDrive - National University of Ireland, Galway\PhD\Data\BAN\Adult\Ultra\MP\ultra_0Lmin_ad_mp\ultra_0Lmin_ad_mp_n10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcofking/Documents/GitHub/ciarrai/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2C7051-D925-F647-B214-B6F7028DDF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="1040" yWindow="500" windowWidth="26540" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,6 +209,1296 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean(µm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$84:$EF$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>1.8115300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8227599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.79434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6495199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.52573</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8314499999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.57159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7427299999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1582400000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7580199999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3553000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.65933</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1735600000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6042400000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5390600000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.03979</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1675200000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5215799999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4679599999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4688699999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.36765</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3942099999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4130199999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.44258</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3151200000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3526800000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.32413</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3194999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.35825</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.28609</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3138799999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2716400000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2862100000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4852099999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2766599999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.30446</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.29687</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2864800000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2436799999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.2995699999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.84118</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.28878</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.2866599999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.29271</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.2461800000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.28576</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.27108</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2844899999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.2490600000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2327600000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.32185</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.3363499999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.30315</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.3027</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.3084499999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.31453</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.2680800000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.36348</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.2372399999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.2756799999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2440899999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.26631</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.3899699999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.30765</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.21366</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.2343299999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.25274</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.33111</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.3493599999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.26058</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2332099999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2426699999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.25482</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.27047</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.26613</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.2382899999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.32494</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.5097799999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.2942199999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.4257599999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.3184400000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.23451</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.3310500000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.28084</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.26457</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.26129</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.5663899999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.1343000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.31023</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.2835000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.3248599999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.2964199999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.2042099999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.2848200000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.2842100000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.2645999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.2077</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.2476</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.2521800000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.30776</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.25281</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.2620199999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.3166899999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.2537799999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.2410099999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.24407</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.2647699999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.21678</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.2786999999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.25207</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.27241</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.2766200000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.2330300000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.20245</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.2053400000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.2321599999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.22298</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.44451</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.28962</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.2350399999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.30264</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.2824899999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.26014</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.2857000000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.22977</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.2056500000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.26614</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.2123699999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.2644299999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.3892199999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.42543</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.28139</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.337</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.21932</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.2537400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF44-1748-8402-C7FA49D2D622}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="668558768"/>
+        <c:axId val="668560416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="668558768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668560416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="668560416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668558768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCDB426-24E6-614B-9B48-482155E5C3E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,19 +1763,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EF88"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:XFD83"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -500,7 +1791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -508,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -516,7 +1807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -524,7 +1815,7 @@
         <v>0.48696800000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -532,7 +1823,7 @@
         <v>20.535299999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -942,7 +2233,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1352,7 +2643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1762,7 +3053,7 @@
         <v>0.72199074074074077</v>
       </c>
     </row>
-    <row r="10" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2172,7 +3463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2582,7 +3873,7 @@
         <v>2.2893300000000001E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.54200000000000004</v>
       </c>
@@ -2992,7 +4283,7 @@
         <v>1.2086E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.58299999999999996</v>
       </c>
@@ -3402,7 +4693,7 @@
         <v>2.2963700000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.626</v>
       </c>
@@ -3812,7 +5103,7 @@
         <v>4.0968599999999998E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.67300000000000004</v>
       </c>
@@ -4222,7 +5513,7 @@
         <v>6.0039499999999999E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.72299999999999998</v>
       </c>
@@ -4632,7 +5923,7 @@
         <v>8.0748799999999998E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.77700000000000002</v>
       </c>
@@ -5042,7 +6333,7 @@
         <v>9.6514799999999998E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.83499999999999996</v>
       </c>
@@ -5452,7 +6743,7 @@
         <v>1.06309E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.89800000000000002</v>
       </c>
@@ -5862,7 +7153,7 @@
         <v>1.0226499999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.96499999999999997</v>
       </c>
@@ -6272,7 +7563,7 @@
         <v>9.2640599999999995E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.0369999999999999</v>
       </c>
@@ -6682,7 +7973,7 @@
         <v>8.6089700000000001E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.1140000000000001</v>
       </c>
@@ -7092,7 +8383,7 @@
         <v>7.3175599999999996E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1.1970000000000001</v>
       </c>
@@ -7502,7 +8793,7 @@
         <v>7.7603000000000004E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1.286</v>
       </c>
@@ -7912,7 +9203,7 @@
         <v>6.7209699999999997E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1.3819999999999999</v>
       </c>
@@ -8322,7 +9613,7 @@
         <v>5.6431899999999998E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1.486</v>
       </c>
@@ -8732,7 +10023,7 @@
         <v>5.45811E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1.5960000000000001</v>
       </c>
@@ -9142,7 +10433,7 @@
         <v>3.8977700000000001E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1.7150000000000001</v>
       </c>
@@ -9552,7 +10843,7 @@
         <v>3.6474899999999999E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1.843</v>
       </c>
@@ -9962,7 +11253,7 @@
         <v>4.6246999999999998E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.9810000000000001</v>
       </c>
@@ -10372,7 +11663,7 @@
         <v>4.8842299999999998E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2.129</v>
       </c>
@@ -10782,7 +12073,7 @@
         <v>3.1820399999999999E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2.2879999999999998</v>
       </c>
@@ -11192,7 +12483,7 @@
         <v>2.4444400000000002E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2.4580000000000002</v>
       </c>
@@ -11602,7 +12893,7 @@
         <v>2.1000500000000001E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2.6419999999999999</v>
       </c>
@@ -12012,7 +13303,7 @@
         <v>1.1582300000000001E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2.839</v>
       </c>
@@ -12422,7 +13713,7 @@
         <v>1.07797E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3.0510000000000002</v>
       </c>
@@ -12832,7 +14123,7 @@
         <v>8.9179700000000003E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3.278</v>
       </c>
@@ -13242,7 +14533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3.5230000000000001</v>
       </c>
@@ -13652,7 +14943,7 @@
         <v>6.8665100000000001E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3.786</v>
       </c>
@@ -14062,7 +15353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4.0679999999999996</v>
       </c>
@@ -14472,7 +15763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4.3710000000000004</v>
       </c>
@@ -14882,7 +16173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4.6980000000000004</v>
       </c>
@@ -15292,7 +16583,7 @@
         <v>1.62831E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5.048</v>
       </c>
@@ -15702,7 +16993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5.4249999999999998</v>
       </c>
@@ -16112,7 +17403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5.8289999999999997</v>
       </c>
@@ -16522,7 +17813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>6.2640000000000002</v>
       </c>
@@ -16932,7 +18223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>6.7320000000000002</v>
       </c>
@@ -17342,7 +18633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7.234</v>
       </c>
@@ -17752,7 +19043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7.774</v>
       </c>
@@ -18162,7 +19453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>8.3539999999999992</v>
       </c>
@@ -18572,7 +19863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>8.9770000000000003</v>
       </c>
@@ -18982,7 +20273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>9.6470000000000002</v>
       </c>
@@ -19392,7 +20683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>10.37</v>
       </c>
@@ -19802,7 +21093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>11.14</v>
       </c>
@@ -20212,7 +21503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>11.97</v>
       </c>
@@ -20622,7 +21913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>12.86</v>
       </c>
@@ -21032,7 +22323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>13.82</v>
       </c>
@@ -21442,7 +22733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>14.86</v>
       </c>
@@ -21852,7 +23143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>15.96</v>
       </c>
@@ -22262,7 +23553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>17.149999999999999</v>
       </c>
@@ -22672,7 +23963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>18.43</v>
       </c>
@@ -23082,7 +24373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>19.809999999999999</v>
       </c>
@@ -23492,7 +24783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -23902,7 +25193,7 @@
         <v>4007</v>
       </c>
     </row>
-    <row r="64" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -24312,7 +25603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -24722,7 +26013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -25132,7 +26423,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -25542,7 +26833,7 @@
         <v>1008.3</v>
       </c>
     </row>
-    <row r="68" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -25952,7 +27243,7 @@
         <v>4.97</v>
       </c>
     </row>
-    <row r="69" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -26362,7 +27653,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="70" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>22</v>
       </c>
@@ -26772,7 +28063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -27182,7 +28473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -27592,7 +28883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>25</v>
       </c>
@@ -28002,7 +29293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -28412,7 +29703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -28822,7 +30113,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -29232,7 +30523,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -29642,7 +30933,7 @@
         <v>2.8149999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -30052,7 +31343,7 @@
         <v>2.8250000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>31</v>
       </c>
@@ -30462,7 +31753,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="80" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>32</v>
       </c>
@@ -30872,7 +32163,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="81" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -31282,7 +32573,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="82" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>34</v>
       </c>
@@ -31692,7 +32983,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -32102,7 +33393,7 @@
         <v>1.04522</v>
       </c>
     </row>
-    <row r="84" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>37</v>
       </c>
@@ -32512,7 +33803,7 @@
         <v>1.2537400000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>38</v>
       </c>
@@ -32922,7 +34213,7 @@
         <v>1.1311500000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>39</v>
       </c>
@@ -33332,7 +34623,7 @@
         <v>0.83536299999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:136" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>40</v>
       </c>
@@ -33742,7 +35033,7 @@
         <v>1.53647</v>
       </c>
     </row>
-    <row r="88" spans="1:136" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:136" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>41</v>
       </c>
@@ -34154,698 +35445,699 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:B136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B1:B16384"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1.5504</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1.47631</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1.4430499999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2.0278499999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1.3790800000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1.80705</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1.3927</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>2.1124399999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1.7072400000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>1.55392</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>1.6332899999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>1.35514</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>2.0727099999999998</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>1.44574</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>1.45577</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>1.7193099999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>1.4953000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>1.3403400000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>1.2756700000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>1.24278</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>1.1914199999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>1.1815800000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>1.21479</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>1.1975100000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>1.1438200000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>1.1669700000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>1.1309400000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>1.1406400000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>1.1384700000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>1.1100300000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>1.12785</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>1.10172</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>1.10423</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>1.0957300000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>1.0805400000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>1.09951</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>1.09589</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>1.10134</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>1.07528</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>1.10114</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>1.1248199999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>1.08161</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>1.08752</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>1.0910200000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>1.06731</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>1.0858699999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>1.0793900000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>1.0740099999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>1.0489900000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>1.06382</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>1.0817300000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>1.07795</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>1.07718</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>1.0772200000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>1.08087</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>1.0694399999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>1.05714</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>1.0681799999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>1.04213</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>1.06491</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>1.04834</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>1.05626</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>1.10859</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>1.0737399999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>1.03617</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>1.05457</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>1.04901</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>1.0725100000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>1.08782</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>1.0428599999999999</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>1.04834</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>1.0572999999999999</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>1.0531900000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>1.0666800000000001</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>1.0583100000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>1.0593399999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>1.07033</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>1.07223</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>1.06717</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>1.0583</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>1.0623499999999999</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>1.0523899999999999</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>1.0730999999999999</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>1.0605599999999999</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>1.0554699999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>1.06857</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>1.0787500000000001</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>1.16232</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>1.0577399999999999</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>1.0603800000000001</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>1.06593</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>1.06149</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>1.15133</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>1.0571900000000001</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>1.0683800000000001</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>1.0462499999999999</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>1.03718</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>1.0572999999999999</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>1.0601400000000001</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>1.0592699999999999</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>1.05907</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103">
         <v>1.0589299999999999</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B104">
         <v>1.0713999999999999</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B105">
         <v>1.0548900000000001</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B106">
         <v>1.04698</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B107">
         <v>1.05341</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B108">
         <v>1.05752</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B109">
         <v>1.0435399999999999</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>1.0619799999999999</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111">
         <v>1.05437</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B112">
         <v>1.0564899999999999</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B113">
         <v>1.07735</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B114">
         <v>1.04634</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115">
         <v>1.02885</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116">
         <v>1.0345800000000001</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117">
         <v>1.04684</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118">
         <v>1.03725</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B119">
         <v>1.09076</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B120">
         <v>1.05623</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B121">
         <v>1.0452999999999999</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B122">
         <v>1.06657</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B123">
         <v>1.06521</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B124">
         <v>1.0571600000000001</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B125">
         <v>1.0588599999999999</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B126">
         <v>1.0386899999999999</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127">
         <v>1.02485</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B128">
         <v>1.0568200000000001</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B129">
         <v>1.0304599999999999</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B130">
         <v>1.05348</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B131">
         <v>1.07534</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B132">
         <v>1.06273</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B133">
         <v>1.0571200000000001</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B134">
         <v>1.08273</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B135">
         <v>1.0468</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136">
         <v>1.04522</v>
       </c>
@@ -34862,15 +36154,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010063F3C2B24EE74845B032A2CC0F813651" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="926914e20f5f300737307ea7be0184e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1" xmlns:ns4="1e8eff21-aac5-419e-8496-4266dd95c283" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d2603b88a961a7e06a76e94fde58845" ns3:_="" ns4:_="">
     <xsd:import namespace="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1"/>
@@ -35087,6 +36370,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{449B77DF-6894-48C6-8565-232F7E47BCD2}">
   <ds:schemaRefs>
@@ -35105,14 +36397,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA7BB2B6-E7E6-487C-9D60-24BABA9195D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB09DA23-3053-4A3D-9E08-BBC3A3813FAC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35129,4 +36413,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA7BB2B6-E7E6-487C-9D60-24BABA9195D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>